--- a/biology/Médecine/Rachianesthésie/Rachianesthésie.xlsx
+++ b/biology/Médecine/Rachianesthésie/Rachianesthésie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rachianesth%C3%A9sie</t>
+          <t>Rachianesthésie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La rachianesthésie (de rachis et anesthésie) ou anesthésie spinale est une technique d'anesthésie locorégionale périmédullaire consistant à injecter une solution anesthésique dans le liquide céphalo-rachidien au travers d'un espace intervertébral de la colonne lombaire, au contact des dernières racines nerveuses médullaires. Elle permet une puissante anesthésie des parties du corps situées sous une ligne qui correspond, en fonction de la hauteur l'espace ponctionné, du type d'anesthésique local, de la vitesse d'administration, de la position du patient et de la dose d'anesthésique local employé, au niveau du bloc. Contrairement à l'anesthésie péridurale la rachianesthésie nécessite un franchissement de la dure-mère (injection intrathécale)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rachianesthésie (de rachis et anesthésie) ou anesthésie spinale est une technique d'anesthésie locorégionale périmédullaire consistant à injecter une solution anesthésique dans le liquide céphalo-rachidien au travers d'un espace intervertébral de la colonne lombaire, au contact des dernières racines nerveuses médullaires. Elle permet une puissante anesthésie des parties du corps situées sous une ligne qui correspond, en fonction de la hauteur l'espace ponctionné, du type d'anesthésique local, de la vitesse d'administration, de la position du patient et de la dose d'anesthésique local employé, au niveau du bloc. Contrairement à l'anesthésie péridurale la rachianesthésie nécessite un franchissement de la dure-mère (injection intrathécale).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rachianesth%C3%A9sie</t>
+          <t>Rachianesthésie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">James Leonard Corning, un neurologue new-yorkais a décrit en 1885 l'utilisation de la cocaïne pour la rachianesthésie. Corning a d'abord injecté de la cocaïne par voie intrathécale à un chien et en quelques minutes, le chien avait une faiblesse marquée à l'arrière-train.
 Augustus Karl Gustav Bier, un chirurgien allemand, a utilisé avec succès de la cocaïne par voie intrathécale en 1898 sur six patients pour une chirurgie des membres inférieurs.
-Dudley Tait et Guido Caglieri ont réalisé la première rachianesthésie aux États-Unis à San Francisco en 1899. Rudolph Matas, un chirurgien vasculaire à la Nouvelle-Orléans, a décrit l'utilisation de cocaïne spinale sur des patients et a peut-être été le premier à utiliser de la morphine dans l'espace sous-arachnoïdien. Théodore Tuffier, un chirurgien français à Paris, a étudié la rachianesthésie et en a fait rapport en 1900, et ses démonstrations ont contribué à populariser la rachianesthésie en Europe. Mais en 1947, le cas très médiatisé d'Albert Woolley et Cecile Roe (Royaume-Uni), deux patients devenus paraplégiques en une journée, a poussé les anesthésistes à abandonner temporairement cette technique au profit de l'anesthésie générale[1].
+Dudley Tait et Guido Caglieri ont réalisé la première rachianesthésie aux États-Unis à San Francisco en 1899. Rudolph Matas, un chirurgien vasculaire à la Nouvelle-Orléans, a décrit l'utilisation de cocaïne spinale sur des patients et a peut-être été le premier à utiliser de la morphine dans l'espace sous-arachnoïdien. Théodore Tuffier, un chirurgien français à Paris, a étudié la rachianesthésie et en a fait rapport en 1900, et ses démonstrations ont contribué à populariser la rachianesthésie en Europe. Mais en 1947, le cas très médiatisé d'Albert Woolley et Cecile Roe (Royaume-Uni), deux patients devenus paraplégiques en une journée, a poussé les anesthésistes à abandonner temporairement cette technique au profit de l'anesthésie générale.
 Ce n'est qu'à la fin des années 1950 qu'elle fut de nouveau employée après la parution de publications sur de larges cohortes montrant la très faible incidence d'évènements indésirables graves.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rachianesth%C3%A9sie</t>
+          <t>Rachianesthésie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Indications[2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les patients devant être opérés sur la moitié inférieure du corps (schématiquement sous l'ombilic) la rachianesthésie fait partie des techniques de choix, tout particulièrement en cas de souhait par le patient ou l'anesthésiste d'une alternative anesthésie générale.
 Elle offre l'avantage de préserver la ventilation spontanée et de permettre au patient de communiquer avec son chirurgien.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rachianesth%C3%A9sie</t>
+          <t>Rachianesthésie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Réalisation et mode d'action[3]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La rachianesthésie fait appel à une solution anesthésique dont le composant essentiel est un anesthésique local (lévobupivacaïne, bupivacaïne, ropivacaïne, prilocaïne, chloroprocaïne)[4], parfois accompagné d'un adjuvant pour améliorer la qualité, la durée du bloc et réduire la dose d'anesthésique local[2]: sufentanil, fentanyl, clonidine, morphine... La lidocaïne, qui exerce une toxicité locale sur les racines nerveuses, est contre-indiquée par cette voie depuis plusieurs années.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rachianesthésie fait appel à une solution anesthésique dont le composant essentiel est un anesthésique local (lévobupivacaïne, bupivacaïne, ropivacaïne, prilocaïne, chloroprocaïne), parfois accompagné d'un adjuvant pour améliorer la qualité, la durée du bloc et réduire la dose d'anesthésique local: sufentanil, fentanyl, clonidine, morphine... La lidocaïne, qui exerce une toxicité locale sur les racines nerveuses, est contre-indiquée par cette voie depuis plusieurs années.
 Le patient est surveillé avec les éléments habituels du monitorage per opératoire (cardioscope, saturation pulsée en dioxygène, pression artérielle non invasive), et avec une perfusion veineuse (indispensable pour permettre l'administration de drogues d'urgence).
 Une ponction lombaire est réalisée en conditions d'asepsie chirurgicale par le MAR, souvent après une anesthésie locale des tissus sous cutanés, chez un patient assis ou en allongé sur le côté. Le matériel utilisé est une aiguille type "pointe de crayon"(Whitacre) de 25 à 27 Gauge (soit un diamètre plus fin d'une aiguille pour une ponction lombaire de 22G), et ce afin de limiter la survenue d'un syndrome post ponction lombaire.
 L'injection du mélange anesthésiant entraine dans les 15 minutes une anesthésie de qualité chirurgicale, avec un niveau supérieur délimité à un dermatome. La durée de l'anesthésie va être conditionnée par le choix de l'anesthésique local et sa dose. Si l'intervention se prolonge et que la rachianesthésie cesse de faire effet, l'anesthésiste doit utiliser la perfusion pour réaliser une anesthésie générale.
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rachianesth%C3%A9sie</t>
+          <t>Rachianesthésie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,9 +635,11 @@
           <t>Rachi morphine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains anesthésistes pratiquent la rachi morphine, c'est-à-dire l'administration chez un adulte de 100 à 400 ug de morphine seule par voie intrathécale avec comme objectif une analgésie post opératoire prolongée (12 à 24h) se substituant à une PCA morphine[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains anesthésistes pratiquent la rachi morphine, c'est-à-dire l'administration chez un adulte de 100 à 400 ug de morphine seule par voie intrathécale avec comme objectif une analgésie post opératoire prolongée (12 à 24h) se substituant à une PCA morphine.
 </t>
         </is>
       </c>
@@ -630,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rachianesth%C3%A9sie</t>
+          <t>Rachianesthésie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,13 +668,15 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Hypotension, fréquente, dont les signes annonciateurs sont des nausées et vomissements. La raison est vasoplégie intense qui fait chuter la pression artérielle par baisse des résistances périphériques, nécessitant le plus souvent une expansion volémique et l'administration de vasoconsctricteurs (éphédrine, phényléphrine, noradrénaline...). L'hypotension peut être responsable d'authentiques arrêts cardiaques (1/10000)[6]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hypotension, fréquente, dont les signes annonciateurs sont des nausées et vomissements. La raison est vasoplégie intense qui fait chuter la pression artérielle par baisse des résistances périphériques, nécessitant le plus souvent une expansion volémique et l'administration de vasoconsctricteurs (éphédrine, phényléphrine, noradrénaline...). L'hypotension peut être responsable d'authentiques arrêts cardiaques (1/10000)
 Nausées et vomissements ; souvent en lien avec une hypotension
 Sensation d'oppression thoracique par paralysie des muscles respiratoires accessoires ;
 Déficit moteur prolongé ;
-Echec de la rachianesthésie, de l'ordre de 1%[7] (pas de niveau, niveau insuffisant), nécessitant une nouvelle ponction, un report de l'intervention ou une anesthésie générale.
+Echec de la rachianesthésie, de l'ordre de 1% (pas de niveau, niveau insuffisant), nécessitant une nouvelle ponction, un report de l'intervention ou une anesthésie générale.
 Prurit aux morphiniques
 Rétention aiguë d'urine ;
 Syndrome post-ponction lombaire, céphalées ; proportionnel au nombre de ponctions, et au diamètre de l'aiguille ; favorisé par le jeune âge.
@@ -680,7 +702,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rachianesth%C3%A9sie</t>
+          <t>Rachianesthésie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -698,9 +720,11 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe certaines contre-indications à la rachianesthésie[1]:
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe certaines contre-indications à la rachianesthésie:
 Refus de la technique par le patient
 troubles de l'hémostase primaire/secondaire, innés ou acquis: certains types de malade de willebrand, thrombopénie sévère, thrombopathie, CIVD, traitement par anticoagulants(héparines, anticoagulants oraux directs, antivitamine K), double anti-agrégation plaquettaire...(risque d'hématome )
 Un sepsis non traité
@@ -719,7 +743,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rachianesth%C3%A9sie</t>
+          <t>Rachianesthésie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -737,7 +761,9 @@
           <t>Comparaison avec l'anesthésie générale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est régulièrement demandés aux anesthésistes par les patients quelle est la technique la moins risquée. La rachianesthésie et l'anesthésie générale possèdent des avantages et des risques différents qui doivent être expliqués, et la décision de la technique prise au cas par cas.
 Par exemple la rachianesthésie n'expose pas au risque de bris dentaire ni au risque de pneumopathie d'inhalation, mais expose entre autres à des risques de séquelles neurologiques auxquelles l'anesthésie générale n'expose pas.
